--- a/node_modules/write-excel-file/test-output/test-schema-no-single-title.xlsx
+++ b/node_modules/write-excel-file/test-output/test-schema-no-single-title.xlsx
@@ -117,7 +117,7 @@
         <v>1800</v>
       </c>
       <c r="C2" s="6">
-        <v>45077.96850516203</v>
+        <v>45309.12770103009</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -131,7 +131,7 @@
         <v>2600.5</v>
       </c>
       <c r="C3" s="6">
-        <v>45077.96850516203</v>
+        <v>45309.12770103009</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
